--- a/Datos/Database by set/Set with text box/Xlsx sets/Innistrad Tokens (TISD).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Innistrad Tokens (TISD).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,462 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>('Angel', ['Token Creature — Angel', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Angel</t>
+          <t>('Demon', ['Token Creature — Demon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Homunculus', ['Token Creature — Homunculus', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Innistrad Checklist', ['Card', '(You can mark this card to represent a double-faced card in your library or hand.)', '☐ Cloistered Youth {1}{W}', '☐ Thraben Sentry {3}{W}', '☐ Civilized Scholar {2}{U}', '☐ Delver of Secrets {U}', '☐ Ludevic’s Test Subject {1}{U}', '☐ Bloodline Keeper {2}{B}{B}', '☐ Screeching Bat {2}{B}', '☐ Hanweir Watchkeep {2}{R}', '☐ Instigator Gang {3}{R}', '☐ Kruin Outlaw {1}{R}{R}', '☐ Reckless Waif {R}', '☐ Tormented Pariah {3}{R}', '☐ Village Ironsmith {1}{R}', '☐ Daybreak Ranger {2}{G}', '☐ Garruk Relentless {3}{G}', '☐ Gatstaf Shepherd {1}{G}', '☐ Grizzled Outcasts {4}{G}', '☐ Mayor of Avabruck {1}{G}', '☐ Ulvenwald Mystics {2}{G}{G}', '☐ Villagers of Estwald {2}{G}'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Demon</t>
+          <t>('Ooze', ['Token Creature — Ooze', 'This creature’s power and toughness are each equal to the number of slime counters on Gutter Grime.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Demon</t>
+          <t>('Spider', ['Token Creature — Spider', 'Reach', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>('Vampire', ['Token Creature — Vampire', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Homunculus</t>
+          <t>('Wolf', ['Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Token Creature — Homunculus</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Innistrad Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>(You can mark this card to represent a double-faced card in your library or hand.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>☐ Cloistered Youth {1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>☐ Thraben Sentry {3}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>☐ Civilized Scholar {2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>☐ Delver of Secrets {U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>☐ Ludevic’s Test Subject {1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>☐ Bloodline Keeper {2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>☐ Screeching Bat {2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>☐ Hanweir Watchkeep {2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>☐ Instigator Gang {3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>☐ Kruin Outlaw {1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>☐ Reckless Waif {R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>☐ Tormented Pariah {3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>☐ Village Ironsmith {1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>☐ Daybreak Ranger {2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>☐ Garruk Relentless {3}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>☐ Gatstaf Shepherd {1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>☐ Grizzled Outcasts {4}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>☐ Mayor of Avabruck {1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>☐ Ulvenwald Mystics {2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>☐ Villagers of Estwald {2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Token Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>This creature’s power and toughness are each equal to the number of slime counters on Gutter Grime.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Token Creature — Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Reach</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Token Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Deathtouch</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
